--- a/test1.xlsx
+++ b/test1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0AA52-8FD2-4B2F-9816-51C3D789DD8E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
     <definedName name="ПрСмерти">'[1]Причина смерти'!$A$1:$A$7</definedName>
     <definedName name="Районы">[1]Районы!$A$1:$A$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="435">
   <si>
     <t>RecNo</t>
   </si>
@@ -113,144 +114,48 @@
     <t>Biography</t>
   </si>
   <si>
-    <t>Ванюшин</t>
-  </si>
-  <si>
     <t>Иван</t>
   </si>
   <si>
-    <t>Григорьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> род. 1906 г., Рязанская обл., Шацкий рн, с. СновоЗдорово, рядовой, 179 сп, 79 сд, пропал без вести 16. 08. 45 г.</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
     <t>рядовой</t>
   </si>
   <si>
-    <t>16.08.1945</t>
-  </si>
-  <si>
     <t>пропал без вести</t>
   </si>
   <si>
     <t>Шацкий р-н</t>
   </si>
   <si>
-    <t>Ванюшкин</t>
-  </si>
-  <si>
-    <t>Максим</t>
-  </si>
-  <si>
-    <t>Михайлович</t>
-  </si>
-  <si>
     <t xml:space="preserve"> род. 1914 г., рядовой, пропал без вести в марте 1943 г.</t>
   </si>
   <si>
-    <t>1914</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>Николаевич</t>
-  </si>
-  <si>
     <t xml:space="preserve"> род. 1922 г., рядовой, пропал без вести в мае 1942 г.</t>
   </si>
   <si>
-    <t>1922</t>
-  </si>
-  <si>
-    <t>Варавошин</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>Васильевич</t>
-  </si>
-  <si>
     <t xml:space="preserve"> рядовой, пропал без вести в январе 1943 г.</t>
   </si>
   <si>
-    <t>Варивлиин</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
     <t xml:space="preserve"> рядовой, погиб 5. 08. 43 г.</t>
   </si>
   <si>
-    <t>05.08.1943</t>
-  </si>
-  <si>
-    <t>погиб</t>
-  </si>
-  <si>
-    <t>Варин</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>Тимофеевич</t>
-  </si>
-  <si>
     <t xml:space="preserve"> рядовой, пропал без вести в ноябре 1941 г.</t>
   </si>
   <si>
-    <t>Варламов</t>
-  </si>
-  <si>
-    <t>Василий</t>
-  </si>
-  <si>
-    <t>Ефимович</t>
-  </si>
-  <si>
     <t xml:space="preserve"> род. 1904 г., рядовой, пропал без вести в мае 1942 г.</t>
   </si>
   <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>Григорий</t>
-  </si>
-  <si>
     <t>Иванович</t>
   </si>
   <si>
     <t xml:space="preserve"> старшина, погиб 10. 10. 43 г., место захоронения Запорожская обл.</t>
   </si>
   <si>
-    <t>старшина</t>
-  </si>
-  <si>
-    <t>10.10.1943</t>
-  </si>
-  <si>
-    <t>Запорожская обл.</t>
-  </si>
-  <si>
     <t>Васенкин</t>
   </si>
   <si>
-    <t>Семенович</t>
-  </si>
-  <si>
     <t xml:space="preserve"> рядовой, погиб в плену в октябре 1941 г.</t>
   </si>
   <si>
-    <t>погиб в плену</t>
-  </si>
-  <si>
     <t>Зиновьевич</t>
   </si>
   <si>
@@ -272,9 +177,6 @@
     <t xml:space="preserve"> род. 1918 г., мл. сержант, п/п 279691, погиб 7. 08. 43 г., место захоронения Смоленская обл., Дорогобужский рн.</t>
   </si>
   <si>
-    <t xml:space="preserve"> рядовой, погиб 9. 10. 43 г.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> род. 1914 г., рядовой, погиб 29. 10. 43 г., место захоронения Витебская обл.</t>
   </si>
   <si>
@@ -1419,12 +1321,21 @@
   </si>
   <si>
     <t xml:space="preserve"> род. 1926 г., рядовой, пропал без вести в феврале 1945 г.</t>
+  </si>
+  <si>
+    <t>Воронцов</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>20.10.1941</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1800,6 +1711,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1835,6 +1763,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2010,45 +1955,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P107" sqref="P107"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="79.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="79.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="41.42578125" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="41.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="25.109375" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="22.5546875" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
     <col min="23" max="29" width="0" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2137,36 +2082,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
-        <v>135892</v>
+        <v>136131</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>33</v>
+        <v>433</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -2175,12 +2120,12 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="11">
-        <f t="shared" ref="V2:V65" si="0">X2+1</f>
+        <f t="shared" ref="V2:V3" si="0">X2+1</f>
         <v>8</v>
       </c>
       <c r="W2" s="12">
@@ -2202,37 +2147,35 @@
         <v>0</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
-        <v>135893</v>
+        <v>135901</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -2241,7 +2184,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -2268,53 +2211,32 @@
         <v>0</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>135894</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>46</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="L4" s="11"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V4" s="11"/>
       <c r="W4" s="12">
         <v>25</v>
       </c>
@@ -2334,51 +2256,32 @@
         <v>0</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>135895</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V5" s="11"/>
       <c r="W5" s="12">
         <v>25</v>
       </c>
@@ -2398,53 +2301,32 @@
         <v>0</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>135896</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V6" s="11"/>
       <c r="W6" s="12">
         <v>25</v>
       </c>
@@ -2464,51 +2346,32 @@
         <v>0</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>135897</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
-      <c r="S7" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V7" s="11"/>
       <c r="W7" s="12">
         <v>25</v>
       </c>
@@ -2528,53 +2391,32 @@
         <v>0</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>135898</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V8" s="11"/>
       <c r="W8" s="12">
         <v>25</v>
       </c>
@@ -2594,55 +2436,32 @@
         <v>0</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>135899</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>67</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V9" s="11"/>
       <c r="W9" s="12">
         <v>25</v>
       </c>
@@ -2662,51 +2481,32 @@
         <v>0</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>135900</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>73</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V10" s="11"/>
       <c r="W10" s="12">
         <v>25</v>
       </c>
@@ -2726,51 +2526,32 @@
         <v>0</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>135901</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="V11" s="11"/>
       <c r="W11" s="12">
         <v>25</v>
       </c>
@@ -2790,32 +2571,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="11"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="W12" s="12">
         <v>25</v>
       </c>
@@ -2835,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2880,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2925,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2970,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3015,55 +2774,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12">
-        <v>25</v>
-      </c>
-      <c r="X17" s="7">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3105,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -3150,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3195,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3240,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3285,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3330,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3375,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3420,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3465,10 +3179,10 @@
         <v>0</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3510,10 +3224,10 @@
         <v>0</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3555,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3600,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3645,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3690,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3735,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3780,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3825,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3870,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3915,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3960,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4005,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4050,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4095,10 +3809,10 @@
         <v>0</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4140,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4185,10 +3899,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4230,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4275,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4320,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4365,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4410,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4455,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4500,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4545,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="AC50" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4590,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4635,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4680,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4725,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="AC54" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4770,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4815,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="AC56" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4860,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="AC57" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4905,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="AC58" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4950,10 +4664,10 @@
         <v>0</v>
       </c>
       <c r="AC59" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4995,10 +4709,10 @@
         <v>0</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5040,10 +4754,10 @@
         <v>0</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5085,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="AC62" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5130,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5175,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5220,10 +4934,10 @@
         <v>0</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5265,10 +4979,10 @@
         <v>0</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5310,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="AC67" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5355,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="AC68" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5400,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="AC69" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -5445,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="AC70" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5490,10 +5204,10 @@
         <v>0</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -5535,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -5580,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5625,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5670,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="AC75" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5715,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="AC76" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5760,10 +5474,10 @@
         <v>0</v>
       </c>
       <c r="AC77" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5805,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5850,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5895,10 +5609,10 @@
         <v>0</v>
       </c>
       <c r="AC80" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5940,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="AC81" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -5985,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="AC82" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -6030,10 +5744,10 @@
         <v>0</v>
       </c>
       <c r="AC83" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -6075,10 +5789,10 @@
         <v>0</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -6120,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="AC85" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -6165,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="AC86" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -6210,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="AC87" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -6255,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -6300,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="AC89" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -6345,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="AC90" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -6390,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="AC91" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -6435,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="AC92" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -6480,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -6525,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -6570,10 +6284,10 @@
         <v>1</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -6615,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="AC96" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -6660,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="AC97" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -6705,10 +6419,10 @@
         <v>0</v>
       </c>
       <c r="AC98" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -6750,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="AC99" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -6795,10 +6509,10 @@
         <v>0</v>
       </c>
       <c r="AC100" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -6840,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="AC101" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -6885,10 +6599,10 @@
         <v>0</v>
       </c>
       <c r="AC102" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -6930,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="AC103" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -6975,10 +6689,10 @@
         <v>0</v>
       </c>
       <c r="AC104" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -7020,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="AC105" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -7065,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="AC106" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7110,10 +6824,10 @@
         <v>0</v>
       </c>
       <c r="AC107" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -7155,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="AC108" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -7200,10 +6914,10 @@
         <v>0</v>
       </c>
       <c r="AC109" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7245,10 +6959,10 @@
         <v>0</v>
       </c>
       <c r="AC110" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7290,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="AC111" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7335,10 +7049,10 @@
         <v>0</v>
       </c>
       <c r="AC112" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -7380,10 +7094,10 @@
         <v>0</v>
       </c>
       <c r="AC113" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -7425,10 +7139,10 @@
         <v>0</v>
       </c>
       <c r="AC114" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -7470,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="AC115" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -7515,10 +7229,10 @@
         <v>0</v>
       </c>
       <c r="AC116" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -7560,10 +7274,10 @@
         <v>0</v>
       </c>
       <c r="AC117" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -7605,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -7650,10 +7364,10 @@
         <v>0</v>
       </c>
       <c r="AC119" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -7695,10 +7409,10 @@
         <v>0</v>
       </c>
       <c r="AC120" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -7740,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="AC121" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -7785,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="AC122" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -7830,10 +7544,10 @@
         <v>0</v>
       </c>
       <c r="AC123" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -7875,10 +7589,10 @@
         <v>0</v>
       </c>
       <c r="AC124" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -7920,10 +7634,10 @@
         <v>0</v>
       </c>
       <c r="AC125" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -7965,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="AC126" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8010,10 +7724,10 @@
         <v>0</v>
       </c>
       <c r="AC127" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -8055,10 +7769,10 @@
         <v>0</v>
       </c>
       <c r="AC128" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -8100,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="AC129" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -8145,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="AC130" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -8190,10 +7904,10 @@
         <v>0</v>
       </c>
       <c r="AC131" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -8235,10 +7949,10 @@
         <v>0</v>
       </c>
       <c r="AC132" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -8280,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="AC133" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -8325,10 +8039,10 @@
         <v>0</v>
       </c>
       <c r="AC134" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -8370,10 +8084,10 @@
         <v>0</v>
       </c>
       <c r="AC135" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -8415,10 +8129,10 @@
         <v>0</v>
       </c>
       <c r="AC136" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -8460,10 +8174,10 @@
         <v>0</v>
       </c>
       <c r="AC137" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -8505,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="AC138" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -8550,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="AC139" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -8595,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="AC140" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -8640,10 +8354,10 @@
         <v>0</v>
       </c>
       <c r="AC141" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -8685,10 +8399,10 @@
         <v>0</v>
       </c>
       <c r="AC142" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -8730,10 +8444,10 @@
         <v>0</v>
       </c>
       <c r="AC143" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -8775,10 +8489,10 @@
         <v>0</v>
       </c>
       <c r="AC144" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -8820,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="AC145" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -8865,10 +8579,10 @@
         <v>0</v>
       </c>
       <c r="AC146" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="147" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -8910,10 +8624,10 @@
         <v>0</v>
       </c>
       <c r="AC147" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -8955,10 +8669,10 @@
         <v>0</v>
       </c>
       <c r="AC148" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -9000,10 +8714,10 @@
         <v>0</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -9045,10 +8759,10 @@
         <v>0</v>
       </c>
       <c r="AC150" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -9090,10 +8804,10 @@
         <v>0</v>
       </c>
       <c r="AC151" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -9135,10 +8849,10 @@
         <v>0</v>
       </c>
       <c r="AC152" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -9180,10 +8894,10 @@
         <v>0</v>
       </c>
       <c r="AC153" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -9225,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AC154" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -9270,10 +8984,10 @@
         <v>0</v>
       </c>
       <c r="AC155" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -9315,10 +9029,10 @@
         <v>0</v>
       </c>
       <c r="AC156" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -9360,10 +9074,10 @@
         <v>0</v>
       </c>
       <c r="AC157" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -9405,10 +9119,10 @@
         <v>0</v>
       </c>
       <c r="AC158" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -9450,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="AC159" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -9495,10 +9209,10 @@
         <v>0</v>
       </c>
       <c r="AC160" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="161" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -9540,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="AC161" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="162" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -9585,10 +9299,10 @@
         <v>0</v>
       </c>
       <c r="AC162" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="163" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -9630,10 +9344,10 @@
         <v>0</v>
       </c>
       <c r="AC163" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="164" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -9675,10 +9389,10 @@
         <v>0</v>
       </c>
       <c r="AC164" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="165" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -9720,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="AC165" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="166" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -9765,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="AC166" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="167" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -9810,10 +9524,10 @@
         <v>0</v>
       </c>
       <c r="AC167" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -9855,10 +9569,10 @@
         <v>0</v>
       </c>
       <c r="AC168" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -9900,10 +9614,10 @@
         <v>0</v>
       </c>
       <c r="AC169" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -9945,10 +9659,10 @@
         <v>0</v>
       </c>
       <c r="AC170" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -9990,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="AC171" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="172" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -10035,10 +9749,10 @@
         <v>0</v>
       </c>
       <c r="AC172" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="173" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -10080,10 +9794,10 @@
         <v>0</v>
       </c>
       <c r="AC173" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="174" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -10125,10 +9839,10 @@
         <v>0</v>
       </c>
       <c r="AC174" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="175" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -10170,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="AC175" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -10215,10 +9929,10 @@
         <v>0</v>
       </c>
       <c r="AC176" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -10260,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="AC177" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -10305,10 +10019,10 @@
         <v>0</v>
       </c>
       <c r="AC178" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -10350,10 +10064,10 @@
         <v>0</v>
       </c>
       <c r="AC179" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -10395,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="AC180" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="181" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -10440,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AC181" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="182" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -10485,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="AC182" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -10530,10 +10244,10 @@
         <v>0</v>
       </c>
       <c r="AC183" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -10575,10 +10289,10 @@
         <v>0</v>
       </c>
       <c r="AC184" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="185" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -10620,10 +10334,10 @@
         <v>0</v>
       </c>
       <c r="AC185" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="186" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -10665,10 +10379,10 @@
         <v>0</v>
       </c>
       <c r="AC186" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="187" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -10710,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="AC187" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -10755,10 +10469,10 @@
         <v>0</v>
       </c>
       <c r="AC188" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -10800,10 +10514,10 @@
         <v>0</v>
       </c>
       <c r="AC189" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -10845,10 +10559,10 @@
         <v>0</v>
       </c>
       <c r="AC190" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -10890,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="AC191" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -10935,10 +10649,10 @@
         <v>0</v>
       </c>
       <c r="AC192" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="193" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -10980,10 +10694,10 @@
         <v>0</v>
       </c>
       <c r="AC193" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="194" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -11025,10 +10739,10 @@
         <v>0</v>
       </c>
       <c r="AC194" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="195" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -11070,10 +10784,10 @@
         <v>0</v>
       </c>
       <c r="AC195" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="196" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -11115,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="AC196" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -11160,10 +10874,10 @@
         <v>0</v>
       </c>
       <c r="AC197" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="198" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -11205,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="AC198" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="199" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -11250,10 +10964,10 @@
         <v>0</v>
       </c>
       <c r="AC199" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -11295,10 +11009,10 @@
         <v>0</v>
       </c>
       <c r="AC200" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -11340,10 +11054,10 @@
         <v>0</v>
       </c>
       <c r="AC201" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="202" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -11385,10 +11099,10 @@
         <v>0</v>
       </c>
       <c r="AC202" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -11430,10 +11144,10 @@
         <v>0</v>
       </c>
       <c r="AC203" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -11475,10 +11189,10 @@
         <v>0</v>
       </c>
       <c r="AC204" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -11520,10 +11234,10 @@
         <v>0</v>
       </c>
       <c r="AC205" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -11565,10 +11279,10 @@
         <v>0</v>
       </c>
       <c r="AC206" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -11610,10 +11324,10 @@
         <v>0</v>
       </c>
       <c r="AC207" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -11655,10 +11369,10 @@
         <v>0</v>
       </c>
       <c r="AC208" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="209" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -11700,10 +11414,10 @@
         <v>0</v>
       </c>
       <c r="AC209" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="210" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -11745,10 +11459,10 @@
         <v>0</v>
       </c>
       <c r="AC210" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="211" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -11790,10 +11504,10 @@
         <v>0</v>
       </c>
       <c r="AC211" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -11835,10 +11549,10 @@
         <v>0</v>
       </c>
       <c r="AC212" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -11880,10 +11594,10 @@
         <v>0</v>
       </c>
       <c r="AC213" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -11925,10 +11639,10 @@
         <v>0</v>
       </c>
       <c r="AC214" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -11970,10 +11684,10 @@
         <v>0</v>
       </c>
       <c r="AC215" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -12015,10 +11729,10 @@
         <v>0</v>
       </c>
       <c r="AC216" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="217" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -12060,10 +11774,10 @@
         <v>0</v>
       </c>
       <c r="AC217" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -12105,10 +11819,10 @@
         <v>0</v>
       </c>
       <c r="AC218" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="219" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -12150,10 +11864,10 @@
         <v>0</v>
       </c>
       <c r="AC219" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -12195,10 +11909,10 @@
         <v>0</v>
       </c>
       <c r="AC220" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -12240,10 +11954,10 @@
         <v>0</v>
       </c>
       <c r="AC221" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -12285,10 +11999,10 @@
         <v>0</v>
       </c>
       <c r="AC222" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="223" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -12330,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="AC223" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -12375,10 +12089,10 @@
         <v>0</v>
       </c>
       <c r="AC224" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="225" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -12420,10 +12134,10 @@
         <v>0</v>
       </c>
       <c r="AC225" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="226" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -12465,10 +12179,10 @@
         <v>0</v>
       </c>
       <c r="AC226" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="227" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -12510,10 +12224,10 @@
         <v>0</v>
       </c>
       <c r="AC227" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="228" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -12555,10 +12269,10 @@
         <v>0</v>
       </c>
       <c r="AC228" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="229" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -12600,10 +12314,10 @@
         <v>0</v>
       </c>
       <c r="AC229" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="230" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -12645,10 +12359,10 @@
         <v>0</v>
       </c>
       <c r="AC230" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="231" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -12690,10 +12404,10 @@
         <v>0</v>
       </c>
       <c r="AC231" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="232" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -12735,10 +12449,10 @@
         <v>0</v>
       </c>
       <c r="AC232" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="233" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -12780,10 +12494,10 @@
         <v>0</v>
       </c>
       <c r="AC233" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="234" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -12825,10 +12539,10 @@
         <v>0</v>
       </c>
       <c r="AC234" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -12870,10 +12584,10 @@
         <v>0</v>
       </c>
       <c r="AC235" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="236" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -12915,10 +12629,10 @@
         <v>0</v>
       </c>
       <c r="AC236" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -12960,10 +12674,10 @@
         <v>0</v>
       </c>
       <c r="AC237" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -13005,10 +12719,10 @@
         <v>0</v>
       </c>
       <c r="AC238" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -13050,10 +12764,10 @@
         <v>0</v>
       </c>
       <c r="AC239" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -13095,10 +12809,10 @@
         <v>0</v>
       </c>
       <c r="AC240" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="241" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="241" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -13140,10 +12854,10 @@
         <v>0</v>
       </c>
       <c r="AC241" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="242" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -13185,10 +12899,10 @@
         <v>0</v>
       </c>
       <c r="AC242" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="243" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -13230,10 +12944,10 @@
         <v>0</v>
       </c>
       <c r="AC243" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="244" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="244" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -13275,10 +12989,10 @@
         <v>0</v>
       </c>
       <c r="AC244" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="245" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="245" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -13320,10 +13034,10 @@
         <v>0</v>
       </c>
       <c r="AC245" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="246" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -13365,10 +13079,10 @@
         <v>0</v>
       </c>
       <c r="AC246" s="6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -13410,10 +13124,10 @@
         <v>0</v>
       </c>
       <c r="AC247" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="248" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="248" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -13455,10 +13169,10 @@
         <v>0</v>
       </c>
       <c r="AC248" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="249" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="249" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -13500,10 +13214,10 @@
         <v>0</v>
       </c>
       <c r="AC249" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="250" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="250" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -13545,10 +13259,10 @@
         <v>0</v>
       </c>
       <c r="AC250" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="251" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="251" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -13590,10 +13304,10 @@
         <v>0</v>
       </c>
       <c r="AC251" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="252" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -13635,10 +13349,10 @@
         <v>0</v>
       </c>
       <c r="AC252" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="253" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -13680,10 +13394,10 @@
         <v>0</v>
       </c>
       <c r="AC253" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="254" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -13725,10 +13439,10 @@
         <v>0</v>
       </c>
       <c r="AC254" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -13770,10 +13484,10 @@
         <v>0</v>
       </c>
       <c r="AC255" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="256" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -13815,10 +13529,10 @@
         <v>0</v>
       </c>
       <c r="AC256" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="257" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="7"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -13860,10 +13574,10 @@
         <v>0</v>
       </c>
       <c r="AC257" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="258" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -13905,10 +13619,10 @@
         <v>0</v>
       </c>
       <c r="AC258" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="259" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -13950,10 +13664,10 @@
         <v>0</v>
       </c>
       <c r="AC259" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="260" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -13995,10 +13709,10 @@
         <v>0</v>
       </c>
       <c r="AC260" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="261" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -14040,10 +13754,10 @@
         <v>0</v>
       </c>
       <c r="AC261" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="262" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -14085,10 +13799,10 @@
         <v>0</v>
       </c>
       <c r="AC262" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="263" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -14130,10 +13844,10 @@
         <v>0</v>
       </c>
       <c r="AC263" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="264" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -14175,10 +13889,10 @@
         <v>0</v>
       </c>
       <c r="AC264" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="265" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -14220,10 +13934,10 @@
         <v>0</v>
       </c>
       <c r="AC265" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="266" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -14265,10 +13979,10 @@
         <v>0</v>
       </c>
       <c r="AC266" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -14310,10 +14024,10 @@
         <v>0</v>
       </c>
       <c r="AC267" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="268" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -14355,10 +14069,10 @@
         <v>0</v>
       </c>
       <c r="AC268" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="269" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -14400,10 +14114,10 @@
         <v>0</v>
       </c>
       <c r="AC269" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="270" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -14445,10 +14159,10 @@
         <v>0</v>
       </c>
       <c r="AC270" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="271" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -14490,10 +14204,10 @@
         <v>0</v>
       </c>
       <c r="AC271" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="272" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -14535,10 +14249,10 @@
         <v>0</v>
       </c>
       <c r="AC272" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="273" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -14580,10 +14294,10 @@
         <v>0</v>
       </c>
       <c r="AC273" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="274" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -14625,10 +14339,10 @@
         <v>0</v>
       </c>
       <c r="AC274" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="275" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -14670,10 +14384,10 @@
         <v>0</v>
       </c>
       <c r="AC275" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="276" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -14715,10 +14429,10 @@
         <v>0</v>
       </c>
       <c r="AC276" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="277" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -14760,10 +14474,10 @@
         <v>0</v>
       </c>
       <c r="AC277" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="278" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -14805,10 +14519,10 @@
         <v>0</v>
       </c>
       <c r="AC278" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="279" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -14850,10 +14564,10 @@
         <v>0</v>
       </c>
       <c r="AC279" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="280" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -14895,10 +14609,10 @@
         <v>0</v>
       </c>
       <c r="AC280" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="281" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -14940,10 +14654,10 @@
         <v>0</v>
       </c>
       <c r="AC281" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="282" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -14985,10 +14699,10 @@
         <v>0</v>
       </c>
       <c r="AC282" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="283" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -15030,10 +14744,10 @@
         <v>0</v>
       </c>
       <c r="AC283" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="284" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -15075,10 +14789,10 @@
         <v>0</v>
       </c>
       <c r="AC284" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="285" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -15120,10 +14834,10 @@
         <v>0</v>
       </c>
       <c r="AC285" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="286" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -15165,10 +14879,10 @@
         <v>0</v>
       </c>
       <c r="AC286" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="287" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="7"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -15210,10 +14924,10 @@
         <v>0</v>
       </c>
       <c r="AC287" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="288" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -15255,10 +14969,10 @@
         <v>0</v>
       </c>
       <c r="AC288" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="289" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="289" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -15300,10 +15014,10 @@
         <v>0</v>
       </c>
       <c r="AC289" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="290" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="290" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -15345,10 +15059,10 @@
         <v>0</v>
       </c>
       <c r="AC290" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="291" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="291" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -15390,10 +15104,10 @@
         <v>0</v>
       </c>
       <c r="AC291" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="292" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="292" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -15435,10 +15149,10 @@
         <v>0</v>
       </c>
       <c r="AC292" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="293" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="293" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -15480,10 +15194,10 @@
         <v>0</v>
       </c>
       <c r="AC293" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="294" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -15525,10 +15239,10 @@
         <v>0</v>
       </c>
       <c r="AC294" s="6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="295" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="295" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -15570,10 +15284,10 @@
         <v>0</v>
       </c>
       <c r="AC295" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="296" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="296" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -15615,10 +15329,10 @@
         <v>0</v>
       </c>
       <c r="AC296" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="297" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="297" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -15660,10 +15374,10 @@
         <v>0</v>
       </c>
       <c r="AC297" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="298" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -15705,10 +15419,10 @@
         <v>0</v>
       </c>
       <c r="AC298" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="299" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -15750,10 +15464,10 @@
         <v>0</v>
       </c>
       <c r="AC299" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="300" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -15795,10 +15509,10 @@
         <v>0</v>
       </c>
       <c r="AC300" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="301" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -15840,10 +15554,10 @@
         <v>0</v>
       </c>
       <c r="AC301" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="302" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
       <c r="B302" s="8"/>
       <c r="C302" s="8"/>
@@ -15885,10 +15599,10 @@
         <v>0</v>
       </c>
       <c r="AC302" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="303" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
       <c r="B303" s="8"/>
       <c r="C303" s="8"/>
@@ -15930,10 +15644,10 @@
         <v>0</v>
       </c>
       <c r="AC303" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="304" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
       <c r="B304" s="8"/>
       <c r="C304" s="8"/>
@@ -15975,10 +15689,10 @@
         <v>0</v>
       </c>
       <c r="AC304" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="305" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
       <c r="B305" s="8"/>
       <c r="C305" s="8"/>
@@ -16020,10 +15734,10 @@
         <v>0</v>
       </c>
       <c r="AC305" s="6" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="306" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
       <c r="B306" s="8"/>
       <c r="C306" s="8"/>
@@ -16065,10 +15779,10 @@
         <v>0</v>
       </c>
       <c r="AC306" s="6" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="307" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7"/>
       <c r="B307" s="8"/>
       <c r="C307" s="8"/>
@@ -16110,10 +15824,10 @@
         <v>0</v>
       </c>
       <c r="AC307" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="308" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
       <c r="B308" s="8"/>
       <c r="C308" s="8"/>
@@ -16155,10 +15869,10 @@
         <v>0</v>
       </c>
       <c r="AC308" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="309" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
       <c r="B309" s="8"/>
       <c r="C309" s="8"/>
@@ -16200,10 +15914,10 @@
         <v>0</v>
       </c>
       <c r="AC309" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="310" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
       <c r="B310" s="8"/>
       <c r="C310" s="8"/>
@@ -16245,10 +15959,10 @@
         <v>0</v>
       </c>
       <c r="AC310" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="311" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
       <c r="B311" s="8"/>
       <c r="C311" s="8"/>
@@ -16290,10 +16004,10 @@
         <v>0</v>
       </c>
       <c r="AC311" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="312" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
       <c r="B312" s="8"/>
       <c r="C312" s="8"/>
@@ -16335,10 +16049,10 @@
         <v>0</v>
       </c>
       <c r="AC312" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="313" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
@@ -16380,10 +16094,10 @@
         <v>0</v>
       </c>
       <c r="AC313" s="6" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="314" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
       <c r="B314" s="8"/>
       <c r="C314" s="8"/>
@@ -16425,10 +16139,10 @@
         <v>0</v>
       </c>
       <c r="AC314" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="315" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
@@ -16470,10 +16184,10 @@
         <v>0</v>
       </c>
       <c r="AC315" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="316" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
       <c r="B316" s="8"/>
       <c r="C316" s="8"/>
@@ -16515,10 +16229,10 @@
         <v>0</v>
       </c>
       <c r="AC316" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="317" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
@@ -16560,10 +16274,10 @@
         <v>0</v>
       </c>
       <c r="AC317" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="318" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
       <c r="B318" s="8"/>
       <c r="C318" s="8"/>
@@ -16605,10 +16319,10 @@
         <v>0</v>
       </c>
       <c r="AC318" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="319" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="319" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
@@ -16650,10 +16364,10 @@
         <v>0</v>
       </c>
       <c r="AC319" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="320" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
       <c r="B320" s="8"/>
       <c r="C320" s="8"/>
@@ -16695,10 +16409,10 @@
         <v>0</v>
       </c>
       <c r="AC320" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="321" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
@@ -16740,10 +16454,10 @@
         <v>0</v>
       </c>
       <c r="AC321" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="322" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
       <c r="B322" s="8"/>
       <c r="C322" s="8"/>
@@ -16785,10 +16499,10 @@
         <v>0</v>
       </c>
       <c r="AC322" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="323" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="7"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
@@ -16830,10 +16544,10 @@
         <v>0</v>
       </c>
       <c r="AC323" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="324" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7"/>
       <c r="B324" s="8"/>
       <c r="C324" s="8"/>
@@ -16875,10 +16589,10 @@
         <v>0</v>
       </c>
       <c r="AC324" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="325" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
@@ -16920,10 +16634,10 @@
         <v>0</v>
       </c>
       <c r="AC325" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="326" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
       <c r="B326" s="8"/>
       <c r="C326" s="8"/>
@@ -16965,10 +16679,10 @@
         <v>0</v>
       </c>
       <c r="AC326" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="327" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
@@ -17010,10 +16724,10 @@
         <v>0</v>
       </c>
       <c r="AC327" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="328" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
       <c r="B328" s="8"/>
       <c r="C328" s="8"/>
@@ -17055,10 +16769,10 @@
         <v>0</v>
       </c>
       <c r="AC328" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="329" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
@@ -17100,10 +16814,10 @@
         <v>0</v>
       </c>
       <c r="AC329" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="330" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
       <c r="B330" s="8"/>
       <c r="C330" s="8"/>
@@ -17145,10 +16859,10 @@
         <v>0</v>
       </c>
       <c r="AC330" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="331" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
@@ -17190,10 +16904,10 @@
         <v>0</v>
       </c>
       <c r="AC331" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="332" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
       <c r="B332" s="8"/>
       <c r="C332" s="8"/>
@@ -17235,10 +16949,10 @@
         <v>0</v>
       </c>
       <c r="AC332" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="333" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -17280,10 +16994,10 @@
         <v>0</v>
       </c>
       <c r="AC333" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="334" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
       <c r="B334" s="8"/>
       <c r="C334" s="8"/>
@@ -17325,10 +17039,10 @@
         <v>0</v>
       </c>
       <c r="AC334" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="335" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7"/>
       <c r="B335" s="8"/>
       <c r="C335" s="8"/>
@@ -17370,10 +17084,10 @@
         <v>0</v>
       </c>
       <c r="AC335" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="336" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7"/>
       <c r="B336" s="8"/>
       <c r="C336" s="8"/>
@@ -17415,10 +17129,10 @@
         <v>0</v>
       </c>
       <c r="AC336" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="337" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
@@ -17460,10 +17174,10 @@
         <v>0</v>
       </c>
       <c r="AC337" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="338" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
       <c r="B338" s="8"/>
       <c r="C338" s="8"/>
@@ -17505,10 +17219,10 @@
         <v>0</v>
       </c>
       <c r="AC338" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="339" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
@@ -17550,10 +17264,10 @@
         <v>0</v>
       </c>
       <c r="AC339" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="340" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
       <c r="B340" s="8"/>
       <c r="C340" s="8"/>
@@ -17595,10 +17309,10 @@
         <v>0</v>
       </c>
       <c r="AC340" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="341" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -17640,10 +17354,10 @@
         <v>0</v>
       </c>
       <c r="AC341" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="342" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7"/>
       <c r="B342" s="8"/>
       <c r="C342" s="8"/>
@@ -17685,10 +17399,10 @@
         <v>0</v>
       </c>
       <c r="AC342" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="343" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7"/>
       <c r="B343" s="8"/>
       <c r="C343" s="8"/>
@@ -17730,10 +17444,10 @@
         <v>0</v>
       </c>
       <c r="AC343" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="344" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7"/>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
@@ -17775,10 +17489,10 @@
         <v>0</v>
       </c>
       <c r="AC344" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="345" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
@@ -17820,10 +17534,10 @@
         <v>0</v>
       </c>
       <c r="AC345" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="346" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
@@ -17865,10 +17579,10 @@
         <v>0</v>
       </c>
       <c r="AC346" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="347" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
@@ -17910,10 +17624,10 @@
         <v>0</v>
       </c>
       <c r="AC347" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="348" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
@@ -17955,10 +17669,10 @@
         <v>0</v>
       </c>
       <c r="AC348" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="349" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
@@ -18000,10 +17714,10 @@
         <v>0</v>
       </c>
       <c r="AC349" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="350" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
@@ -18045,10 +17759,10 @@
         <v>0</v>
       </c>
       <c r="AC350" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="351" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
@@ -18090,10 +17804,10 @@
         <v>0</v>
       </c>
       <c r="AC351" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="352" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
@@ -18135,10 +17849,10 @@
         <v>0</v>
       </c>
       <c r="AC352" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="353" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
@@ -18180,10 +17894,10 @@
         <v>0</v>
       </c>
       <c r="AC353" s="6" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="354" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
@@ -18225,10 +17939,10 @@
         <v>0</v>
       </c>
       <c r="AC354" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="355" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
@@ -18270,10 +17984,10 @@
         <v>0</v>
       </c>
       <c r="AC355" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="356" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
@@ -18315,10 +18029,10 @@
         <v>0</v>
       </c>
       <c r="AC356" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="357" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
@@ -18360,10 +18074,10 @@
         <v>0</v>
       </c>
       <c r="AC357" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="358" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
@@ -18405,10 +18119,10 @@
         <v>0</v>
       </c>
       <c r="AC358" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="359" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
@@ -18450,10 +18164,10 @@
         <v>0</v>
       </c>
       <c r="AC359" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="360" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
@@ -18495,10 +18209,10 @@
         <v>0</v>
       </c>
       <c r="AC360" s="6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="361" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
@@ -18540,10 +18254,10 @@
         <v>0</v>
       </c>
       <c r="AC361" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="362" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
@@ -18585,10 +18299,10 @@
         <v>0</v>
       </c>
       <c r="AC362" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="363" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
@@ -18630,10 +18344,10 @@
         <v>0</v>
       </c>
       <c r="AC363" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="364" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
@@ -18675,10 +18389,10 @@
         <v>0</v>
       </c>
       <c r="AC364" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="365" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7"/>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
@@ -18720,10 +18434,10 @@
         <v>0</v>
       </c>
       <c r="AC365" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="366" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="7"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
@@ -18765,10 +18479,10 @@
         <v>0</v>
       </c>
       <c r="AC366" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="367" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
@@ -18810,10 +18524,10 @@
         <v>0</v>
       </c>
       <c r="AC367" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="368" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
@@ -18855,10 +18569,10 @@
         <v>0</v>
       </c>
       <c r="AC368" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="369" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="369" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
@@ -18900,10 +18614,10 @@
         <v>0</v>
       </c>
       <c r="AC369" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="370" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="370" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
@@ -18945,10 +18659,10 @@
         <v>0</v>
       </c>
       <c r="AC370" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="371" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="371" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
@@ -18990,10 +18704,10 @@
         <v>0</v>
       </c>
       <c r="AC371" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="372" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="372" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
@@ -19035,10 +18749,10 @@
         <v>0</v>
       </c>
       <c r="AC372" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="373" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="373" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
@@ -19080,10 +18794,10 @@
         <v>0</v>
       </c>
       <c r="AC373" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="374" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="374" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
@@ -19125,10 +18839,10 @@
         <v>0</v>
       </c>
       <c r="AC374" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="375" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="375" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
@@ -19170,10 +18884,10 @@
         <v>0</v>
       </c>
       <c r="AC375" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="376" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="7"/>
       <c r="B376" s="8"/>
       <c r="C376" s="8"/>
@@ -19215,10 +18929,10 @@
         <v>0</v>
       </c>
       <c r="AC376" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="377" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -19260,10 +18974,10 @@
         <v>0</v>
       </c>
       <c r="AC377" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="378" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="378" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="7"/>
       <c r="B378" s="8"/>
       <c r="C378" s="8"/>
@@ -19305,10 +19019,10 @@
         <v>0</v>
       </c>
       <c r="AC378" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7"/>
       <c r="B379" s="8"/>
       <c r="C379" s="8"/>
@@ -19350,10 +19064,10 @@
         <v>0</v>
       </c>
       <c r="AC379" s="6" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="380" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="380" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7"/>
       <c r="B380" s="8"/>
       <c r="C380" s="8"/>
@@ -19395,10 +19109,10 @@
         <v>0</v>
       </c>
       <c r="AC380" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="381" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="381" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7"/>
       <c r="B381" s="8"/>
       <c r="C381" s="8"/>
@@ -19440,10 +19154,10 @@
         <v>0</v>
       </c>
       <c r="AC381" s="6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="382" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="382" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7"/>
       <c r="B382" s="8"/>
       <c r="C382" s="8"/>
@@ -19485,10 +19199,10 @@
         <v>0</v>
       </c>
       <c r="AC382" s="6" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="383" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="383" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7"/>
       <c r="B383" s="8"/>
       <c r="C383" s="8"/>
@@ -19530,10 +19244,10 @@
         <v>0</v>
       </c>
       <c r="AC383" s="6" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="384" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="384" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7"/>
       <c r="B384" s="8"/>
       <c r="C384" s="8"/>
@@ -19575,10 +19289,10 @@
         <v>0</v>
       </c>
       <c r="AC384" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="385" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="385" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="7"/>
       <c r="B385" s="8"/>
       <c r="C385" s="8"/>
@@ -19620,10 +19334,10 @@
         <v>0</v>
       </c>
       <c r="AC385" s="6" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="386" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="386" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="7"/>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
@@ -19665,10 +19379,10 @@
         <v>0</v>
       </c>
       <c r="AC386" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="387" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="387" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="7"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
@@ -19710,10 +19424,10 @@
         <v>0</v>
       </c>
       <c r="AC387" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="388" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="388" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="7"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
@@ -19755,10 +19469,10 @@
         <v>0</v>
       </c>
       <c r="AC388" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="389" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="389" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="7"/>
       <c r="B389" s="8"/>
       <c r="C389" s="8"/>
@@ -19800,10 +19514,10 @@
         <v>0</v>
       </c>
       <c r="AC389" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="390" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="390" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="7"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
@@ -19845,10 +19559,10 @@
         <v>0</v>
       </c>
       <c r="AC390" s="6" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="391" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="391" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="7"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
@@ -19890,10 +19604,10 @@
         <v>0</v>
       </c>
       <c r="AC391" s="6" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="392" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="392" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="7"/>
       <c r="B392" s="8"/>
       <c r="C392" s="8"/>
@@ -19935,10 +19649,10 @@
         <v>0</v>
       </c>
       <c r="AC392" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="393" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="393" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="7"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
@@ -19980,10 +19694,10 @@
         <v>0</v>
       </c>
       <c r="AC393" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="394" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="394" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="7"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
@@ -20025,10 +19739,10 @@
         <v>0</v>
       </c>
       <c r="AC394" s="6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="395" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="395" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="7"/>
       <c r="B395" s="8"/>
       <c r="C395" s="8"/>
@@ -20070,10 +19784,10 @@
         <v>0</v>
       </c>
       <c r="AC395" s="6" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="396" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="396" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="7"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
@@ -20115,10 +19829,10 @@
         <v>0</v>
       </c>
       <c r="AC396" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="397" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="397" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="7"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
@@ -20160,10 +19874,10 @@
         <v>0</v>
       </c>
       <c r="AC397" s="6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="398" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="398" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="7"/>
       <c r="B398" s="8"/>
       <c r="C398" s="8"/>
@@ -20205,10 +19919,10 @@
         <v>0</v>
       </c>
       <c r="AC398" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="399" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="399" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="7"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
@@ -20250,10 +19964,10 @@
         <v>0</v>
       </c>
       <c r="AC399" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="400" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="400" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="7"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
@@ -20295,10 +20009,10 @@
         <v>0</v>
       </c>
       <c r="AC400" s="6" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="401" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="7"/>
       <c r="B401" s="8"/>
       <c r="C401" s="8"/>
@@ -20340,10 +20054,10 @@
         <v>0</v>
       </c>
       <c r="AC401" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="402" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="7"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
@@ -20385,10 +20099,10 @@
         <v>0</v>
       </c>
       <c r="AC402" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="403" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="7"/>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
@@ -20430,10 +20144,10 @@
         <v>0</v>
       </c>
       <c r="AC403" s="6" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="404" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
@@ -20475,10 +20189,10 @@
         <v>0</v>
       </c>
       <c r="AC404" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="405" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
@@ -20520,10 +20234,10 @@
         <v>0</v>
       </c>
       <c r="AC405" s="6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="406" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="7"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
@@ -20565,10 +20279,10 @@
         <v>0</v>
       </c>
       <c r="AC406" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="407" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="7"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
@@ -20610,10 +20324,10 @@
         <v>0</v>
       </c>
       <c r="AC407" s="6" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="408" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="7"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
@@ -20655,10 +20369,10 @@
         <v>0</v>
       </c>
       <c r="AC408" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="409" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="7"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
@@ -20700,10 +20414,10 @@
         <v>0</v>
       </c>
       <c r="AC409" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="410" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="7"/>
       <c r="B410" s="8"/>
       <c r="C410" s="8"/>
@@ -20745,10 +20459,10 @@
         <v>0</v>
       </c>
       <c r="AC410" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="411" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="7"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
@@ -20790,10 +20504,10 @@
         <v>0</v>
       </c>
       <c r="AC411" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="412" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="7"/>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
@@ -20835,10 +20549,10 @@
         <v>0</v>
       </c>
       <c r="AC412" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="413" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="7"/>
       <c r="B413" s="8"/>
       <c r="C413" s="8"/>
@@ -20880,10 +20594,10 @@
         <v>0</v>
       </c>
       <c r="AC413" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="414" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="7"/>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
@@ -20925,10 +20639,10 @@
         <v>0</v>
       </c>
       <c r="AC414" s="6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="415" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="7"/>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
@@ -20970,10 +20684,10 @@
         <v>0</v>
       </c>
       <c r="AC415" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="416" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="7"/>
       <c r="B416" s="8"/>
       <c r="C416" s="8"/>
@@ -21015,10 +20729,10 @@
         <v>0</v>
       </c>
       <c r="AC416" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="417" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="417" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7"/>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
@@ -21060,10 +20774,10 @@
         <v>0</v>
       </c>
       <c r="AC417" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="418" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="418" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="7"/>
       <c r="B418" s="8"/>
       <c r="C418" s="8"/>
@@ -21105,10 +20819,10 @@
         <v>0</v>
       </c>
       <c r="AC418" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="419" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="419" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="7"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
@@ -21150,10 +20864,10 @@
         <v>0</v>
       </c>
       <c r="AC419" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="420" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="420" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="7"/>
       <c r="B420" s="8"/>
       <c r="C420" s="8"/>
@@ -21195,10 +20909,10 @@
         <v>0</v>
       </c>
       <c r="AC420" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="421" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="421" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="7"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
@@ -21240,10 +20954,10 @@
         <v>0</v>
       </c>
       <c r="AC421" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="422" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="422" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="7"/>
       <c r="B422" s="8"/>
       <c r="C422" s="8"/>
@@ -21285,10 +20999,10 @@
         <v>0</v>
       </c>
       <c r="AC422" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="423" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="423" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="7"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
@@ -21330,10 +21044,10 @@
         <v>0</v>
       </c>
       <c r="AC423" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="424" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="424" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="7"/>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
@@ -21375,10 +21089,10 @@
         <v>0</v>
       </c>
       <c r="AC424" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="425" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="425" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="7"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
@@ -21420,10 +21134,10 @@
         <v>0</v>
       </c>
       <c r="AC425" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="426" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="426" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="7"/>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
@@ -21465,10 +21179,10 @@
         <v>0</v>
       </c>
       <c r="AC426" s="6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="427" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="427" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
@@ -21510,10 +21224,10 @@
         <v>0</v>
       </c>
       <c r="AC427" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="428" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="428" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="7"/>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
@@ -21555,10 +21269,10 @@
         <v>0</v>
       </c>
       <c r="AC428" s="6" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="429" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="429" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="7"/>
       <c r="B429" s="8"/>
       <c r="C429" s="8"/>
@@ -21600,10 +21314,10 @@
         <v>0</v>
       </c>
       <c r="AC429" s="6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="430" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="430" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="7"/>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
@@ -21645,10 +21359,10 @@
         <v>0</v>
       </c>
       <c r="AC430" s="6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="431" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="431" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="7"/>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
@@ -21690,10 +21404,10 @@
         <v>0</v>
       </c>
       <c r="AC431" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="432" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="432" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="7"/>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
@@ -21735,10 +21449,10 @@
         <v>0</v>
       </c>
       <c r="AC432" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="433" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="433" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="7"/>
       <c r="B433" s="8"/>
       <c r="C433" s="8"/>
@@ -21780,10 +21494,10 @@
         <v>0</v>
       </c>
       <c r="AC433" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="434" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="434" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="7"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
@@ -21825,10 +21539,10 @@
         <v>0</v>
       </c>
       <c r="AC434" s="6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="435" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="435" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="7"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
@@ -21870,10 +21584,10 @@
         <v>0</v>
       </c>
       <c r="AC435" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="436" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="436" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="7"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
@@ -21915,10 +21629,10 @@
         <v>0</v>
       </c>
       <c r="AC436" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="437" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="437" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="7"/>
       <c r="B437" s="8"/>
       <c r="C437" s="8"/>
@@ -21960,10 +21674,10 @@
         <v>0</v>
       </c>
       <c r="AC437" s="6" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="438" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="438" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="7"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
@@ -22005,10 +21719,10 @@
         <v>0</v>
       </c>
       <c r="AC438" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="439" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="439" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="7"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
@@ -22050,10 +21764,10 @@
         <v>0</v>
       </c>
       <c r="AC439" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="440" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="440" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="7"/>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
@@ -22095,10 +21809,10 @@
         <v>0</v>
       </c>
       <c r="AC440" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="441" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="441" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="7"/>
       <c r="B441" s="8"/>
       <c r="C441" s="8"/>
@@ -22140,10 +21854,10 @@
         <v>0</v>
       </c>
       <c r="AC441" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="442" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="442" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="7"/>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
@@ -22185,10 +21899,10 @@
         <v>0</v>
       </c>
       <c r="AC442" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="443" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="443" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="7"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
@@ -22230,10 +21944,10 @@
         <v>0</v>
       </c>
       <c r="AC443" s="6" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="444" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="444" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="7"/>
       <c r="B444" s="8"/>
       <c r="C444" s="8"/>
@@ -22275,10 +21989,10 @@
         <v>0</v>
       </c>
       <c r="AC444" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="445" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="445" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="7"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
@@ -22320,10 +22034,10 @@
         <v>0</v>
       </c>
       <c r="AC445" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="446" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="446" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="7"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
@@ -22365,18 +22079,18 @@
         <v>0</v>
       </c>
       <c r="AC446" s="6" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N446">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N18:N446 N13:N16 N2:N11" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ПрЗахоронения</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L446">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18:L446 L13:L16 L2:L11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>ПрСмерти</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S446">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S18:S446 S13:S16 S2:S11" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Районы</formula1>
     </dataValidation>
   </dataValidations>
@@ -22386,12 +22100,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -22399,12 +22113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
